--- a/translations/translations_for_fijiNetwork.xlsx
+++ b/translations/translations_for_fijiNetwork.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="household_census Translation" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="379">
   <si>
     <t xml:space="preserve">Developer notes for where each section lives</t>
   </si>
@@ -176,6 +176,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Income :: </t>
     </r>
@@ -185,6 +186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">display.prompt.text</t>
     </r>
@@ -261,6 +263,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Family:: </t>
     </r>
@@ -270,6 +273,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">display.prompt.text</t>
     </r>
@@ -298,6 +302,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Family :: </t>
     </r>
@@ -307,6 +312,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">display.new_instance_label.text</t>
     </r>
@@ -510,6 +516,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NOTE:: persons name will be inserted where  </t>
     </r>
@@ -519,6 +526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{data.first_name}}, please include the {{data.first_name}} in your translation as is.</t>
     </r>
@@ -529,6 +537,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">demog_continued :: </t>
     </r>
@@ -538,6 +547,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">display.prompt.text</t>
     </r>
@@ -596,6 +606,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Intro :: </t>
     </r>
@@ -605,6 +616,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">display.prompt.text</t>
     </r>
@@ -908,6 +920,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NOTE:: where text is coloured </t>
     </r>
@@ -918,6 +931,7 @@
         <color rgb="FFCC0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">red</t>
     </r>
@@ -927,6 +941,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, translate this part and leave the black text as is inside your translation.</t>
     </r>
@@ -1642,6 +1657,15 @@
   </si>
   <si>
     <t xml:space="preserve">Are you sure you want to exit and lose all changes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copied to clipboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading database</t>
   </si>
 </sst>
 </file>
@@ -1652,11 +1676,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1694,23 +1719,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1792,7 +1806,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1841,10 +1855,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1858,10 +1868,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1885,10 +1891,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1897,11 +1899,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1989,11 +1987,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.58"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,7 +2213,7 @@
       <c r="C32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2255,7 +2253,7 @@
       <c r="A39" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="4"/>
@@ -2347,7 +2345,7 @@
       <c r="C53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -2360,7 +2358,7 @@
       <c r="C55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2400,19 +2398,19 @@
       <c r="A62" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="4"/>
@@ -2440,7 +2438,7 @@
       <c r="C68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="4"/>
@@ -2489,11 +2487,11 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.58"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2534,7 @@
       <c r="A6" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2546,12 +2544,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
@@ -2578,7 +2576,7 @@
       <c r="B15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6"/>
@@ -2640,11 +2638,11 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.58"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2699,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -2804,9 +2802,6 @@
       <c r="B28" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="11" t="s">
@@ -2844,14 +2839,14 @@
   </sheetPr>
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.65"/>
   </cols>
   <sheetData>
@@ -3174,7 +3169,7 @@
     </row>
     <row r="68" customFormat="false" ht="34.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="5"/>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3216,9 +3211,6 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="17"/>
-    </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="6"/>
     </row>
@@ -3232,12 +3224,6 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="5"/>
@@ -3269,7 +3255,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.04"/>
@@ -3333,17 +3319,11 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17"/>
-    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17"/>
-    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
@@ -3359,7 +3339,7 @@
       <c r="B16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
@@ -3391,7 +3371,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.32"/>
@@ -3482,11 +3462,8 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17"/>
-    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="19"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
@@ -3867,7 +3844,7 @@
       <c r="B95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="19"/>
+      <c r="B96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="5"/>
@@ -3980,7 +3957,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59"/>
@@ -4170,7 +4147,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.86"/>
@@ -4250,17 +4227,11 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17"/>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17"/>
-    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
@@ -4276,7 +4247,7 @@
       <c r="B19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
@@ -4302,23 +4273,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="65.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="69.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="65.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="69.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C1" s="2"/>
@@ -4335,531 +4306,551 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="31.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="195.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="31.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="22"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="19" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
